--- a/pred_ohlcv/54_21/2019-11-26 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-26 WOM ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-107865.2244</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-107865.2244</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-106865.2244</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-106865.2244</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-96944.37550000002</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-96844.37550000002</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-100776.4049</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-101619.3939</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-93631.14377234322</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-94186.71797234322</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-95435.12357234322</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-95935.12357234322</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-96174.46457234322</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-96236.32857234322</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-96358.80047234322</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-119356.5334723432</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-120788.2613723432</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-120758.2613723432</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-26 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-26 WOM ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-107866.0244</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-107865.2244</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-106865.2244</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-106865.2244</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-96944.37550000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-100776.4049</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-101619.3939</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-93631.14377234322</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-95435.12357234322</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-95935.12357234322</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-95929.12357234322</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-96236.32857234322</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-96358.80047234322</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-96858.80047234322</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-119356.5334723432</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-119350.5334723432</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-119344.5334723432</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-120788.2613723432</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-120758.2613723432</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
